--- a/StructureDefinition-Bundle-adultcheck.xlsx
+++ b/StructureDefinition-Bundle-adultcheck.xlsx
@@ -580,7 +580,7 @@
     <t>Bundle.identifier.system</t>
   </si>
   <si>
-    <t>使用個醫院/機構院內代碼</t>
+    <t>就診序號發號者/機構/單位</t>
   </si>
   <si>
     <t>建立值的命名空間－即一個描述一組值的唯一URL</t>
@@ -608,7 +608,7 @@
   </si>
   <si>
     <t>唯一值。
-例如：所屬機構之醫事機構代碼為0123456789</t>
+例如：就診序號為0123456789</t>
   </si>
   <si>
     <t>識別碼中通常與使用者有關的部分，在系統情境內是唯一的。</t>
@@ -1969,7 +1969,7 @@
     <t>Bundle.entry:observationSocial.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://tstifhir.azurehealthcareapis.com/StructureDefinition/ObservationLife-adultcheck}
+    <t xml:space="preserve">Observation {https://tstifhir.azurehealthcareapis.com/StructureDefinition/ObservationSocial-adultcheck}
 </t>
   </si>
   <si>
@@ -7512,13 +7512,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>35</v>
@@ -35947,7 +35947,7 @@
         <v>36</v>
       </c>
       <c r="G291" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H291" t="s" s="2">
         <v>35</v>
